--- a/Quizz 1 1 (1).xlsx
+++ b/Quizz 1 1 (1).xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27103"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27601"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D18D69FE-04A0-4227-ACFC-152D24C07947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2249956-18C9-46F3-9A0F-2E4FE97A4550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="15" windowWidth="18960" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <r>
       <rPr>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>Jhon Kennedy</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
   <si>
     <t>Quantas vezes o Fluminense participou da Copa Libertadores da América</t>
@@ -106,7 +109,7 @@
     <t>5 vezes</t>
   </si>
   <si>
-    <t>9 vezes</t>
+    <t>B</t>
   </si>
   <si>
     <t>Qual foi a maior goleada feita pelo Fluminense na copa Sul-Americana</t>
@@ -124,6 +127,9 @@
     <t>5 a 0</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
     <t xml:space="preserve">Qual jogador com Maior numero de Assistência para gol na copa Libertadores da América pelo Fluminense </t>
   </si>
   <si>
@@ -134,6 +140,9 @@
   </si>
   <si>
     <t>Paulo Henrique Ganso</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -615,7 +624,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:F5"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -667,68 +676,68 @@
         <v>10</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="90" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="75" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="95.25" customHeight="1">
       <c r="A5" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="G5" s="13"/>
     </row>
